--- a/patient_data/patient_92.xlsx
+++ b/patient_data/patient_92.xlsx
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1946,19 +1946,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2023,19 +2023,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2100,19 +2100,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2177,19 +2177,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
